--- a/IDaDP/lab5_eduard/lab5.xlsx
+++ b/IDaDP/lab5_eduard/lab5.xlsx
@@ -18,9 +18,9 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="63" r:id="rId4"/>
-    <pivotCache cacheId="117" r:id="rId5"/>
-    <pivotCache cacheId="119" r:id="rId6"/>
+    <pivotCache cacheId="56" r:id="rId4"/>
+    <pivotCache cacheId="57" r:id="rId5"/>
+    <pivotCache cacheId="81" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -310,7 +310,7 @@
       </extLst>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="40">
+  <cacheHierarchies count="46">
     <cacheHierarchy uniqueName="[Аэропорт].[Код]" caption="Код" attribute="1" defaultMemberUniqueName="[Аэропорт].[Код].[All]" allUniqueName="[Аэропорт].[Код].[All]" dimensionUniqueName="[Аэропорт]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Аэропорт].[название]" caption="название" attribute="1" defaultMemberUniqueName="[Аэропорт].[название].[All]" allUniqueName="[Аэропорт].[название].[All]" dimensionUniqueName="[Аэропорт]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Аэропорт].[местоположения]" caption="местоположения" attribute="1" defaultMemberUniqueName="[Аэропорт].[местоположения].[All]" allUniqueName="[Аэропорт].[местоположения].[All]" dimensionUniqueName="[Аэропорт]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -386,6 +386,48 @@
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
           <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Максимум в столбце Код]" caption="Максимум в столбце Код" measure="1" displayFolder="" measureGroup="Рейс" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу idЭкипажа]" caption="Сумма по столбцу idЭкипажа" measure="1" displayFolder="" measureGroup="Сотрудник" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу количествоМестВсего]" caption="Сумма по столбцу количествоМестВсего" measure="1" displayFolder="" measureGroup="Самолёт" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу количествоЗанятыхМест]" caption="Сумма по столбцу количествоЗанятыхМест" measure="1" displayFolder="" measureGroup="Рейс" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Число элементов в столбце количествоМестВсего]" caption="Число элементов в столбце количествоМестВсего" measure="1" displayFolder="" measureGroup="Самолёт" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Число элементов в столбце количествоЗанятыхМест]" caption="Число элементов в столбце количествоЗанятыхМест" measure="1" displayFolder="" measureGroup="Рейс" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
         </ext>
       </extLst>
     </cacheHierarchy>
@@ -466,7 +508,7 @@
       </extLst>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="40">
+  <cacheHierarchies count="46">
     <cacheHierarchy uniqueName="[Аэропорт].[Код]" caption="Код" attribute="1" defaultMemberUniqueName="[Аэропорт].[Код].[All]" allUniqueName="[Аэропорт].[Код].[All]" dimensionUniqueName="[Аэропорт]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Аэропорт].[название]" caption="название" attribute="1" defaultMemberUniqueName="[Аэропорт].[название].[All]" allUniqueName="[Аэропорт].[название].[All]" dimensionUniqueName="[Аэропорт]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Аэропорт].[местоположения]" caption="местоположения" attribute="1" defaultMemberUniqueName="[Аэропорт].[местоположения].[All]" allUniqueName="[Аэропорт].[местоположения].[All]" dimensionUniqueName="[Аэропорт]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -493,8 +535,8 @@
     <cacheHierarchy uniqueName="[Самолёт].[датаПроизводства]" caption="датаПроизводства" attribute="1" time="1" defaultMemberUniqueName="[Самолёт].[датаПроизводства].[All]" allUniqueName="[Самолёт].[датаПроизводства].[All]" dimensionUniqueName="[Самолёт]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Самолёт].[типСамолёта]" caption="типСамолёта" attribute="1" defaultMemberUniqueName="[Самолёт].[типСамолёта].[All]" allUniqueName="[Самолёт].[типСамолёта].[All]" dimensionUniqueName="[Самолёт]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Сотрудник].[Код]" caption="Код" attribute="1" defaultMemberUniqueName="[Сотрудник].[Код].[All]" allUniqueName="[Сотрудник].[Код].[All]" dimensionUniqueName="[Сотрудник]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Сотрудник].[idЭкипажа]" caption="idЭкипажа" attribute="1" defaultMemberUniqueName="[Сотрудник].[idЭкипажа].[All]" allUniqueName="[Сотрудник].[idЭкипажа].[All]" dimensionUniqueName="[Сотрудник]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Сотрудник].[фио]" caption="фио" attribute="1" defaultMemberUniqueName="[Сотрудник].[фио].[All]" allUniqueName="[Сотрудник].[фио].[All]" dimensionUniqueName="[Сотрудник]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Сотрудник].[idЭкипажа]" caption="idЭкипажа" attribute="1" defaultMemberUniqueName="[Сотрудник].[idЭкипажа].[All]" allUniqueName="[Сотрудник].[idЭкипажа].[All]" dimensionUniqueName="[Сотрудник]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Сотрудник].[фио]" caption="фио" attribute="1" defaultMemberUniqueName="[Сотрудник].[фио].[All]" allUniqueName="[Сотрудник].[фио].[All]" dimensionUniqueName="[Сотрудник]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Сотрудник].[возраст]" caption="возраст" attribute="1" defaultMemberUniqueName="[Сотрудник].[возраст].[All]" allUniqueName="[Сотрудник].[возраст].[All]" dimensionUniqueName="[Сотрудник]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Сотрудник].[роль]" caption="роль" attribute="1" defaultMemberUniqueName="[Сотрудник].[роль].[All]" allUniqueName="[Сотрудник].[роль].[All]" dimensionUniqueName="[Сотрудник]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Экипаж].[Код]" caption="Код" attribute="1" defaultMemberUniqueName="[Экипаж].[Код].[All]" allUniqueName="[Экипаж].[Код].[All]" dimensionUniqueName="[Экипаж]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
@@ -557,6 +599,48 @@
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
           <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Максимум в столбце Код]" caption="Максимум в столбце Код" measure="1" displayFolder="" measureGroup="Рейс" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу idЭкипажа]" caption="Сумма по столбцу idЭкипажа" measure="1" displayFolder="" measureGroup="Сотрудник" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу количествоМестВсего]" caption="Сумма по столбцу количествоМестВсего" measure="1" displayFolder="" measureGroup="Самолёт" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу количествоЗанятыхМест]" caption="Сумма по столбцу количествоЗанятыхМест" measure="1" displayFolder="" measureGroup="Рейс" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Число элементов в столбце количествоМестВсего]" caption="Число элементов в столбце количествоМестВсего" measure="1" displayFolder="" measureGroup="Самолёт" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Число элементов в столбце количествоЗанятыхМест]" caption="Число элементов в столбце количествоЗанятыхМест" measure="1" displayFolder="" measureGroup="Рейс" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
         </ext>
       </extLst>
     </cacheHierarchy>
@@ -598,10 +682,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Edik Sukhovenko" refreshedDate="44915.048599768517" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Edik Sukhovenko" refreshedDate="44915.504068055554" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="2"/>
-  <cacheFields count="0"/>
-  <cacheHierarchies count="42">
+  <cacheFields count="1">
+    <cacheField name="[Рейс].[датаРейса].[датаРейса]" caption="датаРейса" numFmtId="0" hierarchy="7" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-12-20T00:00:00" maxDate="2022-12-21T00:00:00" count="1">
+        <d v="2022-12-20T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="46">
     <cacheHierarchy uniqueName="[Аэропорт].[Код]" caption="Код" attribute="1" defaultMemberUniqueName="[Аэропорт].[Код].[All]" allUniqueName="[Аэропорт].[Код].[All]" dimensionUniqueName="[Аэропорт]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Аэропорт].[название]" caption="название" attribute="1" defaultMemberUniqueName="[Аэропорт].[название].[All]" allUniqueName="[Аэропорт].[название].[All]" dimensionUniqueName="[Аэропорт]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Аэропорт].[местоположения]" caption="местоположения" attribute="1" defaultMemberUniqueName="[Аэропорт].[местоположения].[All]" allUniqueName="[Аэропорт].[местоположения].[All]" dimensionUniqueName="[Аэропорт]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -609,7 +699,12 @@
     <cacheHierarchy uniqueName="[Рейс].[idАэропортаОтправления]" caption="idАэропортаОтправления" attribute="1" defaultMemberUniqueName="[Рейс].[idАэропортаОтправления].[All]" allUniqueName="[Рейс].[idАэропортаОтправления].[All]" dimensionUniqueName="[Рейс]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Рейс].[idАэропортаПрибытия]" caption="idАэропортаПрибытия" attribute="1" defaultMemberUniqueName="[Рейс].[idАэропортаПрибытия].[All]" allUniqueName="[Рейс].[idАэропортаПрибытия].[All]" dimensionUniqueName="[Рейс]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Рейс].[idСамолёта]" caption="idСамолёта" attribute="1" defaultMemberUniqueName="[Рейс].[idСамолёта].[All]" allUniqueName="[Рейс].[idСамолёта].[All]" dimensionUniqueName="[Рейс]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Рейс].[датаРейса]" caption="датаРейса" attribute="1" time="1" defaultMemberUniqueName="[Рейс].[датаРейса].[All]" allUniqueName="[Рейс].[датаРейса].[All]" dimensionUniqueName="[Рейс]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Рейс].[датаРейса]" caption="датаРейса" attribute="1" time="1" defaultMemberUniqueName="[Рейс].[датаРейса].[All]" allUniqueName="[Рейс].[датаРейса].[All]" dimensionUniqueName="[Рейс]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Рейс].[расходТоплива]" caption="расходТоплива" attribute="1" defaultMemberUniqueName="[Рейс].[расходТоплива].[All]" allUniqueName="[Рейс].[расходТоплива].[All]" dimensionUniqueName="[Рейс]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Рейс].[стоимостьБилета]" caption="стоимостьБилета" attribute="1" defaultMemberUniqueName="[Рейс].[стоимостьБилета].[All]" allUniqueName="[Рейс].[стоимостьБилета].[All]" dimensionUniqueName="[Рейс]" displayFolder="" count="0" memberValueDatatype="6" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Рейс].[количествоЗанятыхМест]" caption="количествоЗанятыхМест" attribute="1" defaultMemberUniqueName="[Рейс].[количествоЗанятыхМест].[All]" allUniqueName="[Рейс].[количествоЗанятыхМест].[All]" dimensionUniqueName="[Рейс]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
@@ -618,7 +713,7 @@
     <cacheHierarchy uniqueName="[Рейс].[датаРейса (Месяц)]" caption="датаРейса (Месяц)" attribute="1" defaultMemberUniqueName="[Рейс].[датаРейса (Месяц)].[All]" allUniqueName="[Рейс].[датаРейса (Месяц)].[All]" dimensionUniqueName="[Рейс]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Самолёт].[Код]" caption="Код" attribute="1" defaultMemberUniqueName="[Самолёт].[Код].[All]" allUniqueName="[Самолёт].[Код].[All]" dimensionUniqueName="[Самолёт]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Самолёт].[idЭкипажа]" caption="idЭкипажа" attribute="1" defaultMemberUniqueName="[Самолёт].[idЭкипажа].[All]" allUniqueName="[Самолёт].[idЭкипажа].[All]" dimensionUniqueName="[Самолёт]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Самолёт].[количествоМестВсего]" caption="количествоМестВсего" attribute="1" defaultMemberUniqueName="[Самолёт].[количествоМестВсего].[All]" allUniqueName="[Самолёт].[количествоМестВсего].[All]" dimensionUniqueName="[Самолёт]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Самолёт].[количествоМестВсего]" caption="количествоМестВсего" attribute="1" defaultMemberUniqueName="[Самолёт].[количествоМестВсего].[All]" allUniqueName="[Самолёт].[количествоМестВсего].[All]" dimensionUniqueName="[Самолёт]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Самолёт].[датаПоследнегоРемонта]" caption="датаПоследнегоРемонта" attribute="1" time="1" defaultMemberUniqueName="[Самолёт].[датаПоследнегоРемонта].[All]" allUniqueName="[Самолёт].[датаПоследнегоРемонта].[All]" dimensionUniqueName="[Самолёт]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Самолёт].[датаПроизводства]" caption="датаПроизводства" attribute="1" time="1" defaultMemberUniqueName="[Самолёт].[датаПроизводства].[All]" allUniqueName="[Самолёт].[датаПроизводства].[All]" dimensionUniqueName="[Самолёт]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Самолёт].[типСамолёта]" caption="типСамолёта" attribute="1" defaultMemberUniqueName="[Самолёт].[типСамолёта].[All]" allUniqueName="[Самолёт].[типСамолёта].[All]" dimensionUniqueName="[Самолёт]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -683,6 +778,34 @@
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
           <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу количествоМестВсего]" caption="Сумма по столбцу количествоМестВсего" measure="1" displayFolder="" measureGroup="Самолёт" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу количествоЗанятыхМест]" caption="Сумма по столбцу количествоЗанятыхМест" measure="1" displayFolder="" measureGroup="Рейс" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Число элементов в столбце количествоМестВсего]" caption="Число элементов в столбце количествоМестВсего" measure="1" displayFolder="" measureGroup="Самолёт" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Число элементов в столбце количествоЗанятыхМест]" caption="Число элементов в столбце количествоЗанятыхМест" measure="1" displayFolder="" measureGroup="Рейс" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
         </ext>
       </extLst>
     </cacheHierarchy>
@@ -724,7 +847,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -764,7 +887,7 @@
   <dataFields count="1">
     <dataField name="Сумма по столбцу расходТоплива" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="40">
+  <pivotHierarchies count="46">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -800,6 +923,12 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -828,7 +957,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="117" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -890,7 +1019,7 @@
   <dataFields count="1">
     <dataField name="Число элементов в столбце Код" fld="2" subtotal="count" baseField="1" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="40">
+  <pivotHierarchies count="46">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -931,6 +1060,12 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1" caption="Число элементов в столбце Код"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
@@ -970,9 +1105,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="119" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotHierarchies count="42">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="1">
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <pivotHierarchies count="46">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -1015,14 +1158,29 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Сумма по столбцу количествоМестВсего"/>
+    <pivotHierarchy dragToData="1" caption="Сумма по столбцу количествоЗанятыхМест"/>
+    <pivotHierarchy dragToData="1" caption="Число элементов в столбце количествоМестВсего"/>
+    <pivotHierarchy dragToData="1" caption="Число элементов в столбце количествоЗанятыхМест"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateEqual" evalOrder="-1" id="1">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter val="44915"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="airplanes_db">
+      <x15:pivotTableUISettings>
         <x15:activeTabTopLevelEntity name="[Аэропорт]"/>
         <x15:activeTabTopLevelEntity name="[Рейс]"/>
         <x15:activeTabTopLevelEntity name="[Самолёт]"/>
@@ -1462,26 +1620,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="5" width="46.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1554,9 +1718,19 @@
       <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
